--- a/Τranslations/test1_de_DE.xlsx
+++ b/Τranslations/test1_de_DE.xlsx
@@ -356,7 +356,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>testen</t>
+          <t>test 1 fr</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -386,9 +386,14 @@
           <t>example</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Beispiel</t>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>test 1 fr</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>test 1 fr</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -418,9 +423,14 @@
           <t>fish</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>angeln</t>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>test 1 fr</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>test 1 fr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/Τranslations/test1_de_DE.xlsx
+++ b/Τranslations/test1_de_DE.xlsx
@@ -327,12 +327,12 @@
           <t>se</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>he_IL</t>
         </is>
@@ -344,24 +344,24 @@
           <t>test</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>test 1 fr</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>test 1 fr</t>
+          <t>test</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>τεστ</t>
+          <t>test</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -369,14 +369,24 @@
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>examen</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>בדיקה</t>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -388,17 +398,22 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>test 1 fr</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>test 1 fr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>παράδειγμα</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -406,14 +421,24 @@
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>ejemplo</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>דוגמא</t>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -425,17 +450,22 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>test 1 fr</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>test 1 fr</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ψάρι</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -443,14 +473,24 @@
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>pez</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>דג</t>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>

--- a/Τranslations/test1_de_DE.xlsx
+++ b/Τranslations/test1_de_DE.xlsx
@@ -356,7 +356,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>&lt;a&gt;test&lt;/a&gt;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">

--- a/Τranslations/test1_de_DE.xlsx
+++ b/Τranslations/test1_de_DE.xlsx
@@ -356,7 +356,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>&lt;a&gt;test&lt;/a&gt;</t>
+          <t>&lt;a href="www.google.com"&gt;test&lt;/a&gt;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">

--- a/Τranslations/test1_de_DE.xlsx
+++ b/Τranslations/test1_de_DE.xlsx
@@ -356,7 +356,8 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>&lt;a href="www.google.com"&gt;test&lt;/a&gt;</t>
+          <t>&lt;a href="www.google.com"&gt;test&lt;/a&gt;
+Ons Privacy Statement is aangepast en kan &lt;a href="https://fairplaycasino.nl/privacybeleid" target="_blank"&gt;hier&lt;/a&gt; bekeken worden. &lt;/br&gt; Door op "Opslaan" te clicken accepteer je de nieuwe versie en log je in op de website.</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">

--- a/Τranslations/test1_de_DE.xlsx
+++ b/Τranslations/test1_de_DE.xlsx
@@ -356,8 +356,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>&lt;a href="www.google.com"&gt;test&lt;/a&gt;
-Ons Privacy Statement is aangepast en kan &lt;a href="https://fairplaycasino.nl/privacybeleid" target="_blank"&gt;hier&lt;/a&gt; bekeken worden. &lt;/br&gt; Door op "Opslaan" te clicken accepteer je de nieuwe versie en log je in op de website.</t>
+          <t>test</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">

--- a/Τranslations/test1_de_DE.xlsx
+++ b/Τranslations/test1_de_DE.xlsx
@@ -364,7 +364,7 @@
           <t>test</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="0" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
@@ -416,7 +416,7 @@
           <t>test</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="0" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
@@ -468,7 +468,7 @@
           <t>test</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="0" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
